--- a/applications/Brazil/SP_validation.xlsx
+++ b/applications/Brazil/SP_validation.xlsx
@@ -468,13 +468,13 @@
         <v>45250</v>
       </c>
       <c r="B3">
-        <v>62225</v>
+        <v>59557</v>
       </c>
       <c r="C3">
-        <v>78346</v>
+        <v>72862</v>
       </c>
       <c r="D3">
-        <v>144583</v>
+        <v>132837</v>
       </c>
       <c r="I3">
         <v>2289</v>
@@ -483,10 +483,10 @@
         <v>2887</v>
       </c>
       <c r="K3">
-        <v>3770</v>
+        <v>3604</v>
       </c>
       <c r="L3">
-        <v>8189</v>
+        <v>7355</v>
       </c>
     </row>
   </sheetData>

--- a/applications/Brazil/SP_validation.xlsx
+++ b/applications/Brazil/SP_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>45250</v>
+        <v>45067</v>
       </c>
       <c r="B3">
-        <v>59557</v>
+        <v>59695</v>
       </c>
       <c r="C3">
-        <v>72862</v>
+        <v>74719</v>
       </c>
       <c r="D3">
-        <v>132837</v>
+        <v>138381</v>
       </c>
       <c r="I3">
-        <v>2289</v>
+        <v>2303</v>
       </c>
       <c r="J3">
-        <v>2887</v>
+        <v>3004</v>
       </c>
       <c r="K3">
-        <v>3604</v>
+        <v>3715</v>
       </c>
       <c r="L3">
-        <v>7355</v>
+        <v>8221</v>
       </c>
     </row>
   </sheetData>
